--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.1/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.1/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="950">
   <si>
     <t>anchor score</t>
   </si>
@@ -283,493 +283,493 @@
     <t>demand</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>hopefully</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>commodities</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>bakery</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>clearly</t>
+  </si>
+  <si>
+    <t>cares</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>investing</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>comfort</t>
+  </si>
+  <si>
+    <t>rental</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>knowing</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>based</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>blog</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>excited</t>
-  </si>
-  <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>laugh</t>
-  </si>
-  <si>
-    <t>hopefully</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>commodities</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>bakery</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>rich</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>cares</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>investing</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>bright</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>comfort</t>
-  </si>
-  <si>
-    <t>rental</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>knowing</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>rally</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>beach</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>based</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>could</t>
   </si>
   <si>
     <t>corona</t>
@@ -3232,7 +3232,7 @@
         <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3290,7 +3290,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03873807622983359</v>
+        <v>0.03950971298341116</v>
       </c>
       <c r="C3">
         <v>196</v>
@@ -3311,28 +3311,28 @@
         <v>96</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="K3">
-        <v>0.004853051412353483</v>
+        <v>0.007870993397591789</v>
       </c>
       <c r="L3">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="M3">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3340,7 +3340,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01995316002278539</v>
+        <v>0.02035061372007918</v>
       </c>
       <c r="C4">
         <v>52</v>
@@ -3361,16 +3361,16 @@
         <v>464</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K4">
-        <v>0.003944991276403686</v>
+        <v>0.007195606856277901</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="M4">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3149</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3390,7 +3390,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01383502722494057</v>
+        <v>0.0141106117797897</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -3411,28 +3411,28 @@
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>253</v>
+        <v>90</v>
       </c>
       <c r="K5">
-        <v>0.00390687452476145</v>
+        <v>0.004853051412353483</v>
       </c>
       <c r="L5">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="M5">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3440,7 +3440,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01327009193825193</v>
+        <v>0.01353442335734865</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -3461,28 +3461,28 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>100</v>
+        <v>252</v>
       </c>
       <c r="K6">
-        <v>0.003355987569462251</v>
+        <v>0.003944991276403686</v>
       </c>
       <c r="L6">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="M6">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01071656600730421</v>
+        <v>0.01093003288558474</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -3511,16 +3511,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K7">
-        <v>0.00332770820397966</v>
+        <v>0.00390687452476145</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3540,7 +3540,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009976580011392695</v>
+        <v>0.01017530686003959</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -3561,28 +3561,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="K8">
-        <v>0.003236520763642832</v>
+        <v>0.003355987569462251</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3590,7 +3590,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009585188031078284</v>
+        <v>0.009776118611390265</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -3611,16 +3611,16 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K9">
-        <v>0.003189949691581358</v>
+        <v>0.00332770820397966</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3640,7 +3640,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.00917711885389595</v>
+        <v>0.00935992096718629</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -3661,16 +3661,16 @@
         <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K10">
-        <v>0.00314268856493112</v>
+        <v>0.003236520763642832</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3690,7 +3690,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.00917711885389595</v>
+        <v>0.00935992096718629</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -3711,16 +3711,16 @@
         <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K11">
-        <v>0.003045967199233516</v>
+        <v>0.003189949691581358</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3740,7 +3740,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.008301016334964341</v>
+        <v>0.00846636706787382</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -3761,28 +3761,28 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="K12">
-        <v>0.002820422866375876</v>
+        <v>0.00314268856493112</v>
       </c>
       <c r="L12">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="N12">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3790,7 +3790,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008301016334964341</v>
+        <v>0.00846636706787382</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -3811,16 +3811,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K13">
-        <v>0.002789530083266819</v>
+        <v>0.003045967199233516</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3840,7 +3840,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.007826273254924783</v>
+        <v>0.007982167420944061</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -3861,28 +3861,28 @@
         <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="K14">
-        <v>0.002680093813303601</v>
+        <v>0.002820422866375876</v>
       </c>
       <c r="L14">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="M14">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3890,7 +3890,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007320808283800162</v>
+        <v>0.007466633923260412</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -3911,16 +3911,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K15">
-        <v>0.002680093813303601</v>
+        <v>0.002789530083266819</v>
       </c>
       <c r="L15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3940,7 +3940,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007320808283800162</v>
+        <v>0.007466633923260412</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -3961,7 +3961,7 @@
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K16">
         <v>0.002680093813303601</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3990,7 +3990,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007320808283800162</v>
+        <v>0.007466633923260412</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -4011,16 +4011,16 @@
         <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K17">
-        <v>0.002565994468186922</v>
+        <v>0.002680093813303601</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4040,7 +4040,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007320808283800162</v>
+        <v>0.007466633923260412</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -4061,16 +4061,16 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K18">
-        <v>0.002565994468186922</v>
+        <v>0.002680093813303601</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4090,7 +4090,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006777751455723586</v>
+        <v>0.006912759763798071</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4111,28 +4111,28 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>104</v>
+        <v>263</v>
       </c>
       <c r="K19">
-        <v>0.002564620283841216</v>
+        <v>0.002565994468186922</v>
       </c>
       <c r="L19">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>2063</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4140,7 +4140,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006777751455723586</v>
+        <v>0.006912759763798071</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4161,16 +4161,16 @@
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K20">
-        <v>0.00250699820344864</v>
+        <v>0.002565994468186922</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4190,7 +4190,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006777751455723586</v>
+        <v>0.006912759763798071</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -4211,28 +4211,28 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="K21">
-        <v>0.002446579729627369</v>
+        <v>0.002564620283841216</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4240,7 +4240,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006777751455723586</v>
+        <v>0.006912759763798071</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -4261,16 +4261,16 @@
         <v>9</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K22">
-        <v>0.002446579729627369</v>
+        <v>0.00250699820344864</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4290,7 +4290,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006777751455723586</v>
+        <v>0.006912759763798071</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4311,28 +4311,28 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="K23">
-        <v>0.002394280079068114</v>
+        <v>0.002446579729627369</v>
       </c>
       <c r="L23">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="N23">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4340,7 +4340,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006777751455723586</v>
+        <v>0.006912759763798071</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -4361,16 +4361,16 @@
         <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K24">
-        <v>0.002384630947285629</v>
+        <v>0.002446579729627369</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4390,7 +4390,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006187212269105477</v>
+        <v>0.006310457428743813</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4411,28 +4411,28 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>269</v>
+        <v>91</v>
       </c>
       <c r="K25">
-        <v>0.002384630947285629</v>
+        <v>0.002394280079068114</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4440,7 +4440,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006187212269105477</v>
+        <v>0.006310457428743813</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4461,16 +4461,16 @@
         <v>21</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K26">
-        <v>0.002321029326846427</v>
+        <v>0.002384630947285629</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>549</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4490,7 +4490,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006187212269105477</v>
+        <v>0.006310457428743813</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4511,16 +4511,16 @@
         <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K27">
-        <v>0.002321029326846427</v>
+        <v>0.002384630947285629</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4540,7 +4540,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006187212269105477</v>
+        <v>0.006310457428743813</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4561,7 +4561,7 @@
         <v>5</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K28">
         <v>0.002321029326846427</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>42</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4590,7 +4590,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006187212269105477</v>
+        <v>0.006310457428743813</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4611,28 +4611,28 @@
         <v>5</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>95</v>
+        <v>271</v>
       </c>
       <c r="K29">
-        <v>0.002302371234265383</v>
+        <v>0.002321029326846427</v>
       </c>
       <c r="L29">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="N29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4640,7 +4640,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005534010889976226</v>
+        <v>0.00564424471191588</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4661,28 +4661,28 @@
         <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="K30">
-        <v>0.002267661710997134</v>
+        <v>0.002321029326846427</v>
       </c>
       <c r="L30">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="N30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>98</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4690,7 +4690,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005534010889976226</v>
+        <v>0.00564424471191588</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4711,28 +4711,28 @@
         <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>273</v>
+        <v>93</v>
       </c>
       <c r="K31">
-        <v>0.002255635058561114</v>
+        <v>0.002302371234265383</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4740,7 +4740,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005534010889976226</v>
+        <v>0.00564424471191588</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4761,28 +4761,28 @@
         <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>274</v>
+        <v>89</v>
       </c>
       <c r="K32">
-        <v>0.002255635058561114</v>
+        <v>0.002267661710997134</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4790,7 +4790,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005534010889976226</v>
+        <v>0.00564424471191588</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4811,16 +4811,16 @@
         <v>22</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K33">
-        <v>0.002188287435127942</v>
+        <v>0.002255635058561114</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -4832,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4840,7 +4840,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005534010889976226</v>
+        <v>0.00564424471191588</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -4861,16 +4861,16 @@
         <v>5</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K34">
-        <v>0.002188287435127942</v>
+        <v>0.002255635058561114</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4890,7 +4890,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005534010889976226</v>
+        <v>0.00564424471191588</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -4911,28 +4911,28 @@
         <v>21</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="K35">
-        <v>0.002131878466895902</v>
+        <v>0.002188287435127942</v>
       </c>
       <c r="L35">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>302</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4940,7 +4940,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -4961,16 +4961,16 @@
         <v>11</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K36">
-        <v>0.002118800198241365</v>
+        <v>0.002188287435127942</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>312</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4990,7 +4990,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -5011,16 +5011,16 @@
         <v>23</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K37">
-        <v>0.002108120160696547</v>
+        <v>0.002131878466895902</v>
       </c>
       <c r="L37">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="M37">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="N37">
         <v>0.97</v>
@@ -5032,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5040,7 +5040,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -5061,28 +5061,28 @@
         <v>27</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="K38">
-        <v>0.002089563840505879</v>
+        <v>0.002118800198241365</v>
       </c>
       <c r="L38">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>119</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5090,7 +5090,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -5111,28 +5111,28 @@
         <v>3</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="K39">
-        <v>0.002046955461507766</v>
+        <v>0.002108120160696547</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5140,7 +5140,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5161,7 +5161,7 @@
         <v>5</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K40">
         <v>0.002046955461507766</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5190,7 +5190,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5211,28 +5211,28 @@
         <v>74</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>91</v>
+        <v>279</v>
       </c>
       <c r="K41">
-        <v>0.001981113071335713</v>
+        <v>0.002046955461507766</v>
       </c>
       <c r="L41">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="N41">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5240,7 +5240,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -5290,7 +5290,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5340,7 +5340,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5390,7 +5390,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004792594015539142</v>
+        <v>0.004888059305695133</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5440,7 +5440,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -5490,7 +5490,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -5540,7 +5540,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -5590,7 +5590,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -5640,7 +5640,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -5690,7 +5690,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -5740,7 +5740,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -5761,7 +5761,7 @@
         <v>6</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K52">
         <v>0.001951847226373194</v>
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -5840,7 +5840,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -5890,7 +5890,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -5940,7 +5940,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -5990,7 +5990,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003913136627462391</v>
+        <v>0.00399108371047203</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -6011,7 +6011,7 @@
         <v>9</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K57">
         <v>0.001848538608026243</v>
@@ -6040,7 +6040,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -6090,7 +6090,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -6140,7 +6140,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -6190,7 +6190,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6211,7 +6211,7 @@
         <v>30</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K61">
         <v>0.00180117707315096</v>
@@ -6240,7 +6240,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6290,7 +6290,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -6340,7 +6340,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -6390,7 +6390,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6440,7 +6440,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6490,7 +6490,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6540,7 +6540,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6590,7 +6590,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6640,7 +6640,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6690,7 +6690,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6740,7 +6740,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6761,7 +6761,7 @@
         <v>13</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K72">
         <v>0.001717980536129861</v>
@@ -6790,7 +6790,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6811,7 +6811,7 @@
         <v>27</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K73">
         <v>0.0016651338016274</v>
@@ -6840,7 +6840,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6890,7 +6890,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6940,7 +6940,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6990,7 +6990,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -7040,7 +7040,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7090,7 +7090,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7140,7 +7140,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7190,7 +7190,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7240,7 +7240,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7290,7 +7290,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002767005444988113</v>
+        <v>0.00282212235595794</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7340,25 +7340,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.00274852776063605</v>
+        <v>0.00270513490112098</v>
       </c>
       <c r="C84">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D84">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="E84">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F84">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>317</v>
@@ -7390,25 +7390,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002652302790850607</v>
+        <v>0.002319441338880933</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="E85">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F85">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>318</v>
@@ -7440,25 +7440,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002526668074255964</v>
+        <v>0.002191969722786906</v>
       </c>
       <c r="C86">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D86">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="E86">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F86">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>319</v>
@@ -7490,25 +7490,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002274141941601101</v>
+        <v>0.002078331840123927</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="E87">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F87">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>148</v>
+        <v>302</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>320</v>
@@ -7540,13 +7540,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002149159885075815</v>
+        <v>0.001988728753063945</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E88">
         <v>0.97</v>
@@ -7558,7 +7558,7 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>321</v>
@@ -7590,25 +7590,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002037741384945386</v>
+        <v>0.001950202620613606</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E89">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F89">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>302</v>
+        <v>3005</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>322</v>
@@ -7640,25 +7640,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.001949888273524016</v>
+        <v>0.001918720733043276</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E90">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F90">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>323</v>
@@ -7690,25 +7690,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.001912114568199239</v>
+        <v>0.001912500624095038</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E91">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F91">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>3005</v>
+        <v>12</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>324</v>
@@ -7740,28 +7740,28 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.001881247531501945</v>
+        <v>0.001650798898277588</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D92">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="E92">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F92">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K92">
         <v>0.001564939581370313</v>
@@ -7790,25 +7790,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.001875148903179945</v>
+        <v>0.001628593081550179</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E93">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F93">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>325</v>
@@ -7840,25 +7840,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.001618558291943363</v>
+        <v>0.001611854986430095</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E94">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F94">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>326</v>
@@ -7890,25 +7890,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.00159678616159422</v>
+        <v>0.001597320162645386</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="E95">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F95">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>327</v>
@@ -7940,13 +7940,13 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.001580374966580572</v>
+        <v>0.001593486599049888</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E96">
         <v>0.97</v>
@@ -7958,7 +7958,7 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>328</v>
@@ -7990,25 +7990,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.001566124012340644</v>
+        <v>0.001488473101776737</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E97">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F97">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>24</v>
+        <v>2063</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>329</v>
@@ -8040,25 +8040,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.001562365319412233</v>
+        <v>0.001370508191450914</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E98">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F98">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>330</v>
@@ -8090,25 +8090,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.001459402767792666</v>
+        <v>0.001345498667788525</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E99">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F99">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>2063</v>
+        <v>2</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>331</v>
@@ -8140,25 +8140,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.00134374174817033</v>
+        <v>0.001279172411544084</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E100">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F100">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>332</v>
@@ -8190,25 +8190,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001319220668138383</v>
+        <v>0.001256222896126133</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D101">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E101">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F101">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>333</v>
@@ -8240,25 +8240,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.001254189783922255</v>
+        <v>0.001253027727813824</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E102">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F102">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>9</v>
+        <v>852</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>334</v>
@@ -8290,25 +8290,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.001231688479544985</v>
+        <v>0.00123110419467673</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E103">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F103">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>335</v>
@@ -8340,25 +8340,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.001228555713845033</v>
+        <v>0.001210119784033367</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104">
         <v>42</v>
       </c>
       <c r="E104">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F104">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>336</v>
@@ -8390,13 +8390,13 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.001207060354001528</v>
+        <v>0.001210119784033367</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E105">
         <v>0.98</v>
@@ -8408,10 +8408,10 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K105">
         <v>0.001502065343092892</v>
@@ -8440,28 +8440,28 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.001186485775302816</v>
+        <v>0.00120285968437269</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E106">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F106">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>859</v>
+        <v>120</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K106">
         <v>0.001502065343092892</v>
@@ -8490,25 +8490,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001186485775302816</v>
+        <v>0.001187982733468796</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E107">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F107">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>337</v>
@@ -8540,25 +8540,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001179367467604414</v>
+        <v>0.001109808250834972</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E108">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F108">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>338</v>
@@ -8590,25 +8590,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001164781068092362</v>
+        <v>0.001089554608869614</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E109">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F109">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>339</v>
@@ -8640,25 +8640,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001088133356964509</v>
+        <v>0.001085206980126992</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E110">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F110">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>340</v>
@@ -8690,25 +8690,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001068275274808478</v>
+        <v>0.001070400058508201</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E111">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F111">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>341</v>
@@ -8740,25 +8740,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001064012556582166</v>
+        <v>0.001047155917972287</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E112">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F112">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>342</v>
@@ -8790,25 +8790,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001049494818661906</v>
+        <v>0.001024164299910367</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E113">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F113">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>343</v>
@@ -8840,25 +8840,25 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.00102670464328515</v>
+        <v>0.0009876795479502015</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E114">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F114">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>344</v>
@@ -8890,25 +8890,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001004162058541398</v>
+        <v>0.0009690956358466528</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E115">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F115">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>345</v>
@@ -8940,13 +8940,13 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.0009683898649227581</v>
+        <v>0.0009294509847320342</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E116">
         <v>0.96</v>
@@ -8958,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>346</v>
@@ -8990,25 +8990,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.0009501689022947061</v>
+        <v>0.0009082508692599755</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E117">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F117">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>347</v>
@@ -9040,25 +9040,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.0009112985233165529</v>
+        <v>0.0008860244033519262</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E118">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F118">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>36</v>
+        <v>328</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>348</v>
@@ -9090,25 +9090,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.0008905124525702861</v>
+        <v>0.0008744538667307474</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E119">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F119">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>23</v>
+        <v>843</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>349</v>
@@ -9140,25 +9140,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.0008687200763253024</v>
+        <v>0.0008744538667307474</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E120">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F120">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>328</v>
+        <v>4</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>350</v>
@@ -9190,25 +9190,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.0008573755158158527</v>
+        <v>0.000845973828736355</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E121">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F121">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>843</v>
+        <v>4</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>351</v>
@@ -9240,25 +9240,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.0008573755158158527</v>
+        <v>0.0008381015887898818</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E122">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F122">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>352</v>
@@ -9290,25 +9290,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.0008294517016560649</v>
+        <v>0.0008121742614325854</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E123">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F123">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>353</v>
@@ -9340,25 +9340,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.0008217332089584826</v>
+        <v>0.0007847529399821898</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E124">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F124">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>5</v>
+        <v>399</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>354</v>
@@ -9390,13 +9390,13 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.0007963122502179193</v>
+        <v>0.0007847529399821898</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E125">
         <v>0.9399999999999999</v>
@@ -9408,7 +9408,7 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>355</v>
@@ -9440,7 +9440,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.0007694264755448864</v>
+        <v>0.0007847529399821898</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9458,7 +9458,7 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>399</v>
+        <v>14</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>356</v>
@@ -9490,7 +9490,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.0007694264755448864</v>
+        <v>0.0007847529399821898</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9508,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>357</v>
@@ -9540,7 +9540,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.0007694264755448864</v>
+        <v>0.0007847529399821898</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9558,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>14</v>
+        <v>633</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>358</v>
@@ -9590,13 +9590,13 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.0007694264755448864</v>
+        <v>0.0007556725013368396</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E129">
         <v>0.9399999999999999</v>
@@ -9608,7 +9608,7 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>359</v>
@@ -9640,13 +9640,13 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.0007694264755448864</v>
+        <v>0.0007556725013368396</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E130">
         <v>0.9399999999999999</v>
@@ -9658,7 +9658,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>360</v>
@@ -9690,25 +9690,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.0007409139867421062</v>
+        <v>0.0007247399332805025</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E131">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F131">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>361</v>
@@ -9740,25 +9740,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.0007409139867421062</v>
+        <v>0.0007247399332805025</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E132">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F132">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>362</v>
@@ -9790,28 +9790,28 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.0007105855411810357</v>
+        <v>0.0007195112979536215</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E133">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F133">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K133">
         <v>0.00143817246077361</v>
@@ -9840,13 +9840,13 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.0007105855411810357</v>
+        <v>0.0006917279041746281</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E134">
         <v>0.93</v>
@@ -9858,7 +9858,7 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>363</v>
@@ -9890,25 +9890,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.0007054590226979539</v>
+        <v>0.0006917279041746281</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E135">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F135">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>364</v>
@@ -9940,25 +9940,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.000678218247079411</v>
+        <v>0.0006778271560845104</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D136">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E136">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F136">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>365</v>
@@ -9990,25 +9990,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.000678218247079411</v>
+        <v>0.0006563664648125139</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E137">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F137">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>366</v>
@@ -10040,25 +10040,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.0006645889848422293</v>
+        <v>0.0006563664648125139</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E138">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F138">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>367</v>
@@ -10090,7 +10090,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.0006435474274209294</v>
+        <v>0.0006563664648125139</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10108,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>368</v>
@@ -10140,7 +10140,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.0006435474274209294</v>
+        <v>0.0006563664648125139</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10158,7 +10158,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>369</v>
@@ -10190,25 +10190,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.0006435474274209294</v>
+        <v>0.0006472592090173589</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E141">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F141">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>370</v>
@@ -10240,13 +10240,13 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.0006435474274209294</v>
+        <v>0.0006183322590001089</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E142">
         <v>0.92</v>
@@ -10258,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>371</v>
@@ -10290,25 +10290,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.0006346180391111375</v>
+        <v>0.0006183322590001089</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E143">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F143">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>372</v>
@@ -10340,25 +10340,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.0006062560412567032</v>
+        <v>0.0006084166470251839</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E144">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F144">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>373</v>
@@ -10390,25 +10390,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.0006062560412567032</v>
+        <v>0.0006084166470251839</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E145">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F145">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>374</v>
@@ -10440,25 +10440,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.0005965340842100559</v>
+        <v>0.0005772344280494469</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E146">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F146">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>375</v>
@@ -10490,25 +10490,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.0005965340842100559</v>
+        <v>0.0005772344280494469</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E147">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F147">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>376</v>
@@ -10540,25 +10540,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.0005659608634882389</v>
+        <v>0.0005675477721610937</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E148">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F148">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>11</v>
+        <v>1146</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>377</v>
@@ -10590,25 +10590,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.0005659608634882389</v>
+        <v>0.0005325962240221931</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E149">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F149">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>378</v>
@@ -10640,25 +10640,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.0005564633909459113</v>
+        <v>0.0005325962240221931</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E150">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F150">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>1146</v>
+        <v>6</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>379</v>
@@ -10690,7 +10690,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0005221944572099484</v>
+        <v>0.0005325962240221931</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -10708,7 +10708,7 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>380</v>
@@ -10740,7 +10740,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0005221944572099484</v>
+        <v>0.0005325962240221931</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -10758,7 +10758,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>381</v>
@@ -10790,25 +10790,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0005221944572099484</v>
+        <v>0.0005244707718805594</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E153">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F153">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>382</v>
@@ -10840,25 +10840,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0005221944572099484</v>
+        <v>0.0004838314075454181</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E154">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F154">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>383</v>
@@ -10890,25 +10890,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0005142276976286619</v>
+        <v>0.0004838314075454181</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E155">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F155">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>384</v>
@@ -10940,7 +10940,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0004743820324827855</v>
+        <v>0.0004838314075454181</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -10958,7 +10958,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>385</v>
@@ -10990,7 +10990,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0004743820324827855</v>
+        <v>0.0004838314075454181</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -11008,7 +11008,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>386</v>
@@ -11040,7 +11040,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0004743820324827855</v>
+        <v>0.0004838314075454181</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -11058,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>387</v>
@@ -11090,7 +11090,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0004743820324827855</v>
+        <v>0.0004838314075454181</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11108,7 +11108,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>388</v>
@@ -11140,25 +11140,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0004743820324827855</v>
+        <v>0.0004789888880771433</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E160">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F160">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>389</v>
@@ -11190,25 +11190,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0004743820324827855</v>
+        <v>0.0004308954103192931</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E161">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F161">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>390</v>
@@ -11240,25 +11240,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0004696340888977424</v>
+        <v>0.0004302155368982896</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E162">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F162">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>391</v>
@@ -11290,25 +11290,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0004224798914394203</v>
+        <v>0.0004302155368982896</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E163">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F163">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>392</v>
@@ -11340,7 +11340,7 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0004218132961538374</v>
+        <v>0.0004302155368982896</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -11358,7 +11358,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>393</v>
@@ -11390,7 +11390,7 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0004218132961538374</v>
+        <v>0.0004302155368982896</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -11408,10 +11408,10 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K165">
         <v>0.001301534824397331</v>
@@ -11440,7 +11440,7 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0004218132961538374</v>
+        <v>0.0004302155368982896</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -11458,10 +11458,10 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K166">
         <v>0.001257773620860953</v>
@@ -11490,7 +11490,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0004218132961538374</v>
+        <v>0.0004302155368982896</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11508,7 +11508,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>394</v>
@@ -11540,7 +11540,7 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0004218132961538374</v>
+        <v>0.0004302155368982896</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -11558,7 +11558,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>395</v>
@@ -11590,25 +11590,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0004218132961538374</v>
+        <v>0.0003805965606825671</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D169">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E169">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="F169">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>396</v>
@@ -11640,25 +11640,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0004218132961538374</v>
+        <v>0.0003708568393308863</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E170">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F170">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>397</v>
@@ -11690,25 +11690,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0003731633936881323</v>
+        <v>0.0003708568393308863</v>
       </c>
       <c r="C171">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E171">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="F171">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>398</v>
@@ -11740,7 +11740,7 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0003636138920671723</v>
+        <v>0.0003708568393308863</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -11758,7 +11758,7 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>399</v>
@@ -11790,7 +11790,7 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0003636138920671723</v>
+        <v>0.0003708568393308863</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -11808,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>400</v>
@@ -11840,7 +11840,7 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0003636138920671723</v>
+        <v>0.0003708568393308863</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -11858,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>401</v>
@@ -11890,7 +11890,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0003636138920671723</v>
+        <v>0.0003708568393308863</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -11908,7 +11908,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>402</v>
@@ -11940,7 +11940,7 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0003636138920671723</v>
+        <v>0.0003708568393308863</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -11958,7 +11958,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>403</v>
@@ -11990,7 +11990,7 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0003636138920671723</v>
+        <v>0.0003708568393308863</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -12008,7 +12008,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>404</v>
@@ -12040,7 +12040,7 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0003636138920671723</v>
+        <v>0.0003708568393308863</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -12058,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>405</v>
@@ -12090,25 +12090,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0003636138920671723</v>
+        <v>0.0003260881657828308</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E179">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F179">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>406</v>
@@ -12140,25 +12140,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0003636138920671723</v>
+        <v>0.0003260881657828308</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E180">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F180">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>407</v>
@@ -12190,25 +12190,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0003197195643776427</v>
+        <v>0.000304689066618932</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181">
+        <v>6</v>
+      </c>
+      <c r="E181">
+        <v>0.83</v>
+      </c>
+      <c r="F181">
+        <v>0.17</v>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181">
         <v>10</v>
-      </c>
-      <c r="E181">
-        <v>0.8</v>
-      </c>
-      <c r="F181">
-        <v>0.2</v>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181">
-        <v>6</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>408</v>
@@ -12240,25 +12240,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0003197195643776427</v>
+        <v>0.000304689066618932</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E182">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F182">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>409</v>
@@ -12290,7 +12290,7 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0002987383961517705</v>
+        <v>0.000304689066618932</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -12308,7 +12308,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>410</v>
@@ -12340,7 +12340,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0002987383961517705</v>
+        <v>0.000304689066618932</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12358,7 +12358,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>411</v>
@@ -12390,7 +12390,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0002987383961517705</v>
+        <v>0.000304689066618932</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12408,7 +12408,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>412</v>
@@ -12440,7 +12440,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0002987383961517705</v>
+        <v>0.000304689066618932</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12458,7 +12458,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>413</v>
@@ -12490,7 +12490,7 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0002987383961517705</v>
+        <v>0.000304689066618932</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -12508,7 +12508,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>414</v>
@@ -12540,7 +12540,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0002987383961517705</v>
+        <v>0.000304689066618932</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -12558,7 +12558,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>415</v>
@@ -12590,25 +12590,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0002987383961517705</v>
+        <v>0.0002562744347351527</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D189">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E189">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F189">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>956</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>416</v>
@@ -12640,25 +12640,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0002987383961517705</v>
+        <v>0.0002305791532897227</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E190">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F190">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>417</v>
@@ -12690,25 +12690,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.00025126931680562</v>
+        <v>0.0002305791532897227</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E191">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F191">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>956</v>
+        <v>19</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>418</v>
@@ -12740,7 +12740,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0002260758720494401</v>
+        <v>0.0002305791532897227</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -12758,7 +12758,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>419</v>
@@ -12790,7 +12790,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0002260758720494401</v>
+        <v>0.0002305791532897227</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -12808,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>420</v>
@@ -12840,7 +12840,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0002260758720494401</v>
+        <v>0.0002305791532897227</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -12858,7 +12858,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>421</v>
@@ -12890,7 +12890,7 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0002260758720494401</v>
+        <v>0.0002305791532897227</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -12908,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>422</v>
@@ -12940,7 +12940,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0002260758720494401</v>
+        <v>0.0002305791532897227</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -12958,7 +12958,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>423</v>
@@ -12990,25 +12990,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0002260758720494401</v>
+        <v>0.0001479601138807596</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E197">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F197">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>424</v>
@@ -13040,25 +13040,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0002260758720494401</v>
+        <v>0.0001479601138807596</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E198">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F198">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>425</v>
@@ -13090,7 +13090,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0001450704076968181</v>
+        <v>0.0001479601138807596</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13140,7 +13140,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0001450704076968181</v>
+        <v>0.0001479601138807596</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13158,10 +13158,10 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K200">
         <v>0.001171283328260958</v>
@@ -13190,7 +13190,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0001450704076968181</v>
+        <v>0.0001479601138807596</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13208,10 +13208,10 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K201">
         <v>0.001136515302955904</v>
@@ -13240,7 +13240,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0001450704076968181</v>
+        <v>0.0001479601138807596</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13258,7 +13258,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>427</v>
@@ -13290,7 +13290,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0001450704076968181</v>
+        <v>0.0001479601138807596</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13308,7 +13308,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>428</v>
@@ -13340,7 +13340,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0001450704076968181</v>
+        <v>0.0001479601138807596</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13358,7 +13358,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>429</v>
@@ -13390,7 +13390,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0001450704076968181</v>
+        <v>0.0001479601138807596</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13408,7 +13408,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>430</v>
@@ -13440,7 +13440,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0001450704076968181</v>
+        <v>0.0001479601138807596</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13458,7 +13458,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>431</v>
@@ -13490,7 +13490,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0001450704076968181</v>
+        <v>0.0001479601138807596</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13508,7 +13508,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>432</v>
@@ -13540,7 +13540,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0001450704076968181</v>
+        <v>0.0001479601138807596</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13558,7 +13558,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>433</v>
@@ -13590,25 +13590,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0001450704076968181</v>
+        <v>0.0001471980495670126</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E209">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F209">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>434</v>
@@ -13640,25 +13640,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0001450704076968181</v>
+        <v>0.0001471980495670126</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
+        <v>7</v>
+      </c>
+      <c r="E210">
+        <v>0.71</v>
+      </c>
+      <c r="F210">
+        <v>0.29</v>
+      </c>
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210">
         <v>4</v>
-      </c>
-      <c r="E210">
-        <v>0.75</v>
-      </c>
-      <c r="F210">
-        <v>0.25</v>
-      </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210">
-        <v>25</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>435</v>
@@ -13690,25 +13690,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.000144323226731713</v>
+        <v>8.51693897329247E-05</v>
       </c>
       <c r="C211">
         <v>2</v>
       </c>
       <c r="D211">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E211">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F211">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>436</v>
@@ -13740,25 +13740,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.000144323226731713</v>
+        <v>6.022385302967096E-05</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E212">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F212">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>437</v>
@@ -13790,13 +13790,13 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>8.35060055563479E-05</v>
+        <v>6.022385302967096E-05</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E213">
         <v>0.67</v>
@@ -13808,7 +13808,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>438</v>
@@ -13840,7 +13840,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>5.90476627986951E-05</v>
+        <v>6.022385302967096E-05</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -13858,7 +13858,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>439</v>
@@ -13890,7 +13890,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>5.90476627986951E-05</v>
+        <v>6.022385302967096E-05</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -13908,7 +13908,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>440</v>
@@ -13940,7 +13940,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>5.90476627986951E-05</v>
+        <v>6.022385302967096E-05</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -13958,7 +13958,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>441</v>
@@ -13990,7 +13990,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>5.90476627986951E-05</v>
+        <v>6.022385302967096E-05</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -14008,7 +14008,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>442</v>
@@ -14040,7 +14040,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>5.90476627986951E-05</v>
+        <v>6.022385302967096E-05</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14058,7 +14058,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>443</v>
@@ -14090,7 +14090,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>5.90476627986951E-05</v>
+        <v>6.022385302967096E-05</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14108,7 +14108,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>444</v>
@@ -14140,7 +14140,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>5.90476627986951E-05</v>
+        <v>6.022385302967096E-05</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14158,7 +14158,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>445</v>
@@ -14190,7 +14190,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>5.90476627986951E-05</v>
+        <v>6.022385302967096E-05</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14240,7 +14240,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>5.90476627986951E-05</v>
+        <v>6.022385302967096E-05</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14258,7 +14258,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>447</v>
@@ -14290,7 +14290,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>5.90476627986951E-05</v>
+        <v>6.022385302967096E-05</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14308,7 +14308,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>448</v>
@@ -14340,7 +14340,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>5.90476627986951E-05</v>
+        <v>6.022385302967096E-05</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14358,7 +14358,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>449</v>
@@ -14390,7 +14390,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>5.90476627986951E-05</v>
+        <v>6.022385302967096E-05</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14408,7 +14408,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>450</v>
@@ -14440,7 +14440,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>5.90476627986951E-05</v>
+        <v>6.022385302967096E-05</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14458,7 +14458,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>451</v>
@@ -14490,25 +14490,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>5.90476627986951E-05</v>
+        <v>2.943036199663862E-05</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E227">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F227">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>452</v>
@@ -14540,25 +14540,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>5.90476627986951E-05</v>
+        <v>2.943036199663862E-05</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E228">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F228">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>453</v>
@@ -14590,25 +14590,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>2.885557804421573E-05</v>
+        <v>1.819133390036706E-05</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D229">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E229">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F229">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>454</v>
@@ -14640,25 +14640,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>2.885557804421573E-05</v>
+        <v>1.819133390036706E-05</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D230">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E230">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F230">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>455</v>
@@ -14690,25 +14690,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>1.783605159699982E-05</v>
+        <v>0</v>
       </c>
       <c r="C231">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E231">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F231">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>8</v>
+        <v>358</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>456</v>
@@ -14740,25 +14740,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>1.783605159699982E-05</v>
+        <v>0</v>
       </c>
       <c r="C232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E232">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F232">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>457</v>
@@ -14808,7 +14808,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>358</v>
+        <v>10</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>458</v>
@@ -14858,7 +14858,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>459</v>
@@ -14908,7 +14908,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>460</v>
@@ -14958,7 +14958,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>461</v>
@@ -14993,10 +14993,10 @@
         <v>0</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E237">
         <v>0.5</v>
@@ -15058,7 +15058,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>463</v>
@@ -15093,10 +15093,10 @@
         <v>0</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E239">
         <v>0.5</v>
@@ -15108,7 +15108,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>464</v>
@@ -15158,7 +15158,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>465</v>
@@ -15208,7 +15208,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>466</v>
@@ -15258,7 +15258,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>467</v>
@@ -15308,7 +15308,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>468</v>
@@ -15358,7 +15358,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>469</v>
@@ -15386,30 +15386,6 @@
       </c>
     </row>
     <row r="245" spans="1:17">
-      <c r="A245" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B245">
-        <v>0</v>
-      </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-      <c r="D245">
-        <v>2</v>
-      </c>
-      <c r="E245">
-        <v>0.5</v>
-      </c>
-      <c r="F245">
-        <v>0.5</v>
-      </c>
-      <c r="G245" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245">
-        <v>49</v>
-      </c>
       <c r="J245" s="1" t="s">
         <v>470</v>
       </c>
@@ -15436,30 +15412,6 @@
       </c>
     </row>
     <row r="246" spans="1:17">
-      <c r="A246" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B246">
-        <v>0</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246">
-        <v>2</v>
-      </c>
-      <c r="E246">
-        <v>0.5</v>
-      </c>
-      <c r="F246">
-        <v>0.5</v>
-      </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246">
-        <v>128</v>
-      </c>
       <c r="J246" s="1" t="s">
         <v>471</v>
       </c>
@@ -15877,7 +15829,7 @@
     </row>
     <row r="262" spans="10:17">
       <c r="J262" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K262">
         <v>0.001086286082904348</v>
@@ -15903,7 +15855,7 @@
     </row>
     <row r="263" spans="10:17">
       <c r="J263" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K263">
         <v>0.001068220696281604</v>
@@ -15929,7 +15881,7 @@
     </row>
     <row r="264" spans="10:17">
       <c r="J264" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K264">
         <v>0.001002927107096428</v>
@@ -15955,7 +15907,7 @@
     </row>
     <row r="265" spans="10:17">
       <c r="J265" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K265">
         <v>0.0009573144216042642</v>
@@ -18165,7 +18117,7 @@
     </row>
     <row r="350" spans="10:17">
       <c r="J350" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K350">
         <v>0.0009203241002817959</v>
@@ -18191,7 +18143,7 @@
     </row>
     <row r="351" spans="10:17">
       <c r="J351" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K351">
         <v>0.000860550728984652</v>
@@ -18217,7 +18169,7 @@
     </row>
     <row r="352" spans="10:17">
       <c r="J352" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K352">
         <v>0.000845096627450703</v>
@@ -18243,7 +18195,7 @@
     </row>
     <row r="353" spans="10:17">
       <c r="J353" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K353">
         <v>0.0008315404639804055</v>
@@ -18269,7 +18221,7 @@
     </row>
     <row r="354" spans="10:17">
       <c r="J354" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K354">
         <v>0.000816792050245656</v>
@@ -18295,7 +18247,7 @@
     </row>
     <row r="355" spans="10:17">
       <c r="J355" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K355">
         <v>0.000806833655779792</v>
@@ -21207,7 +21159,7 @@
     </row>
     <row r="467" spans="10:17">
       <c r="J467" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K467">
         <v>0.0007729722250788117</v>
@@ -21233,7 +21185,7 @@
     </row>
     <row r="468" spans="10:17">
       <c r="J468" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K468">
         <v>0.0007681202555302368</v>
@@ -21259,7 +21211,7 @@
     </row>
     <row r="469" spans="10:17">
       <c r="J469" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K469">
         <v>0.0006892891664853427</v>
@@ -21285,7 +21237,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K470">
         <v>0.0006491457515584858</v>
@@ -21311,7 +21263,7 @@
     </row>
     <row r="471" spans="10:17">
       <c r="J471" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K471">
         <v>0.0006382023353354742</v>
@@ -21337,7 +21289,7 @@
     </row>
     <row r="472" spans="10:17">
       <c r="J472" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K472">
         <v>0.0006085012560200743</v>
@@ -21363,7 +21315,7 @@
     </row>
     <row r="473" spans="10:17">
       <c r="J473" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K473">
         <v>0.0006085012560200743</v>
@@ -21389,7 +21341,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K474">
         <v>0.0006085012560200743</v>
@@ -21415,7 +21367,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K475">
         <v>0.0006085012560200743</v>
@@ -21441,7 +21393,7 @@
     </row>
     <row r="476" spans="10:17">
       <c r="J476" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K476">
         <v>0.0006085012560200743</v>
@@ -21467,7 +21419,7 @@
     </row>
     <row r="477" spans="10:17">
       <c r="J477" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K477">
         <v>0.0005673457220087684</v>
@@ -21493,7 +21445,7 @@
     </row>
     <row r="478" spans="10:17">
       <c r="J478" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K478">
         <v>0.0005673457220087684</v>
@@ -21519,7 +21471,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K479">
         <v>0.0005622141622407562</v>
@@ -21545,7 +21497,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K480">
         <v>0.0005622141622407562</v>
@@ -28539,7 +28491,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K749">
         <v>0.0005313982423475085</v>
@@ -28565,7 +28517,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K750">
         <v>0.0005256718800548733</v>
@@ -28591,7 +28543,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K751">
         <v>0.0005256718800548733</v>
@@ -28617,7 +28569,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K752">
         <v>0.0004834766539893033</v>
@@ -28643,7 +28595,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K753">
         <v>0.0004834766539893033</v>
@@ -28669,7 +28621,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K754">
         <v>0.0004407634189652014</v>
@@ -28695,7 +28647,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K755">
         <v>0.0004407634189652014</v>
@@ -28721,7 +28673,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K756">
         <v>0.0004407634189652014</v>
@@ -28747,7 +28699,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K757">
         <v>0.0004407634189652014</v>
@@ -28773,7 +28725,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K758">
         <v>0.0004066451686885448</v>
@@ -28799,7 +28751,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K759">
         <v>0.0003975454465995525</v>
@@ -28825,7 +28777,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K760">
         <v>0.0003975454465995525</v>
@@ -28851,7 +28803,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K761">
         <v>0.000353851272826797</v>
@@ -28877,7 +28829,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K762">
         <v>0.000353851272826797</v>
@@ -28903,7 +28855,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K763">
         <v>0.0003436191871348475</v>
@@ -28929,7 +28881,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K764">
         <v>0.0003306767598802416</v>
@@ -28955,7 +28907,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K765">
         <v>0.0003120460177852659</v>
@@ -28981,7 +28933,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K766">
         <v>0.0003120460177852659</v>
@@ -29007,7 +28959,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K767">
         <v>0.0003097332817348941</v>
@@ -29033,7 +28985,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K768">
         <v>0.0003097332817348941</v>
@@ -29059,7 +29011,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K769">
         <v>0.0003097332817348941</v>
@@ -29085,7 +29037,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K770">
         <v>0.0003097332817348941</v>
@@ -29111,7 +29063,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K771">
         <v>0.0002804966235415109</v>
@@ -29137,7 +29089,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K772">
         <v>0.0002652818799750717</v>
@@ -29163,7 +29115,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K773">
         <v>0.0002652818799750717</v>
@@ -29189,7 +29141,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K774">
         <v>0.0002652818799750717</v>
@@ -29215,7 +29167,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K775">
         <v>0.0002652818799750717</v>
@@ -29241,7 +29193,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K776">
         <v>0.0002652818799750717</v>
@@ -29267,7 +29219,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K777">
         <v>0.0002652818799750717</v>
@@ -29293,7 +29245,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K778">
         <v>0.0002490379036911963</v>
@@ -29319,7 +29271,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K779">
         <v>0.00022064985521822</v>
@@ -29345,7 +29297,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K780">
         <v>0.00022064985521822</v>
@@ -29371,7 +29323,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K781">
         <v>0.00022064985521822</v>
@@ -29397,7 +29349,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K782">
         <v>0.00022064985521822</v>
@@ -29423,7 +29375,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K783">
         <v>0.00022064985521822</v>
@@ -29449,7 +29401,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K784">
         <v>0.00022064985521822</v>
@@ -29475,7 +29427,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K785">
         <v>0.00022064985521822</v>
@@ -29501,7 +29453,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K786">
         <v>0.0002177586018788606</v>
@@ -29527,7 +29479,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K787">
         <v>0.0001867778649375402</v>
@@ -29553,7 +29505,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K788">
         <v>0.0001760963904725273</v>
@@ -29579,7 +29531,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K789">
         <v>0.0001760963904725273</v>
@@ -29605,7 +29557,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K790">
         <v>0.0001760963904725273</v>
@@ -29631,7 +29583,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K791">
         <v>0.0001760963904725273</v>
@@ -29657,7 +29609,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K792">
         <v>0.0001760963904725273</v>
@@ -29683,7 +29635,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K793">
         <v>0.0001760963904725273</v>
@@ -29709,7 +29661,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K794">
         <v>0.0001760963904725273</v>
@@ -29735,7 +29687,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K795">
         <v>0.0001760963904725273</v>
@@ -29761,7 +29713,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K796">
         <v>0.0001760963904725273</v>
@@ -29787,7 +29739,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K797">
         <v>0.0001380280707665858</v>
@@ -29813,7 +29765,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K798">
         <v>0.0001320718948728797</v>
@@ -29839,7 +29791,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K799">
         <v>0.0001320718948728797</v>
@@ -29865,7 +29817,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K800">
         <v>0.0001320718948728797</v>
@@ -29891,7 +29843,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K801">
         <v>0.0001320718948728797</v>
@@ -29917,7 +29869,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K802">
         <v>0.0001320718948728797</v>
@@ -29943,7 +29895,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K803">
         <v>0.0001320718948728797</v>
@@ -29969,7 +29921,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K804">
         <v>0.0001320718948728797</v>
@@ -29995,7 +29947,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K805">
         <v>0.0001320718948728797</v>
@@ -30021,7 +29973,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K806">
         <v>0.0001264251768567048</v>
@@ -30047,7 +29999,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K807">
         <v>0.0001264251768567048</v>
@@ -30073,7 +30025,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K808">
         <v>8.93960998680845E-05</v>
@@ -30099,7 +30051,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K809">
         <v>8.93960998680845E-05</v>
@@ -30125,7 +30077,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K810">
         <v>8.93960998680845E-05</v>
@@ -30151,7 +30103,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K811">
         <v>8.93960998680845E-05</v>
@@ -30177,7 +30129,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K812">
         <v>8.93960998680845E-05</v>
@@ -30203,7 +30155,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K813">
         <v>8.93960998680845E-05</v>
@@ -30229,7 +30181,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K814">
         <v>8.93960998680845E-05</v>
@@ -30255,7 +30207,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K815">
         <v>8.604674530371152E-05</v>
@@ -30281,7 +30233,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K816">
         <v>4.967911156398901E-05</v>
@@ -30307,7 +30259,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K817">
         <v>4.967911156398901E-05</v>
@@ -30333,7 +30285,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K818">
         <v>4.967911156398901E-05</v>
@@ -30359,7 +30311,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K819">
         <v>4.967911156398901E-05</v>
@@ -30385,7 +30337,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K820">
         <v>4.967911156398901E-05</v>
@@ -30411,7 +30363,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K821">
         <v>4.967911156398901E-05</v>
@@ -30437,7 +30389,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K822">
         <v>4.967911156398901E-05</v>
@@ -30463,7 +30415,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K823">
         <v>4.967911156398901E-05</v>
@@ -30489,7 +30441,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K824">
         <v>4.967911156398901E-05</v>
@@ -30515,7 +30467,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K825">
         <v>4.967911156398901E-05</v>
@@ -30541,7 +30493,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K826">
         <v>4.967911156398901E-05</v>
@@ -30567,7 +30519,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K827">
         <v>4.967911156398901E-05</v>
@@ -30593,7 +30545,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K828">
         <v>4.511703968603862E-05</v>
@@ -30619,7 +30571,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K829">
         <v>4.511703968603862E-05</v>
@@ -30645,7 +30597,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K830">
         <v>2.334893464161805E-05</v>
@@ -30671,7 +30623,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K831">
         <v>1.65101900185697E-05</v>
@@ -30697,7 +30649,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K832">
         <v>1.65101900185697E-05</v>
@@ -30723,7 +30675,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K833">
         <v>1.65101900185697E-05</v>
@@ -30749,7 +30701,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K834">
         <v>1.65101900185697E-05</v>
@@ -30775,7 +30727,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K835">
         <v>1.65101900185697E-05</v>
@@ -30801,7 +30753,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K836">
         <v>1.65101900185697E-05</v>
@@ -30827,7 +30779,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K837">
         <v>1.65101900185697E-05</v>
@@ -30853,7 +30805,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K838">
         <v>1.65101900185697E-05</v>
@@ -30879,7 +30831,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K839">
         <v>1.65101900185697E-05</v>
@@ -30905,7 +30857,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K840">
         <v>1.65101900185697E-05</v>
@@ -30931,7 +30883,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K841">
         <v>1.65101900185697E-05</v>
@@ -30957,7 +30909,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K842">
         <v>1.65101900185697E-05</v>
@@ -30983,7 +30935,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K843">
         <v>1.65101900185697E-05</v>
@@ -31009,7 +30961,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K844">
         <v>1.65101900185697E-05</v>
@@ -31035,7 +30987,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K845">
         <v>1.65101900185697E-05</v>
@@ -31061,7 +31013,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K846">
         <v>6.987306108818843E-06</v>
@@ -31087,7 +31039,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K847">
         <v>6.987306108818843E-06</v>
@@ -31113,7 +31065,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K848">
         <v>4.071950125074139E-06</v>
@@ -31139,7 +31091,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K849">
         <v>4.071950125074139E-06</v>
@@ -31165,7 +31117,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K850">
         <v>0</v>
@@ -31191,7 +31143,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K851">
         <v>0</v>
@@ -31217,7 +31169,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K852">
         <v>0</v>
@@ -31243,7 +31195,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K853">
         <v>0</v>
@@ -31269,7 +31221,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K854">
         <v>0</v>
@@ -31295,7 +31247,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K855">
         <v>0</v>
@@ -31321,7 +31273,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K856">
         <v>0</v>
@@ -31347,7 +31299,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K857">
         <v>0</v>
@@ -31373,7 +31325,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K858">
         <v>0</v>
@@ -31399,7 +31351,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K859">
         <v>0</v>
@@ -31425,7 +31377,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K860">
         <v>0</v>
@@ -31451,7 +31403,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K861">
         <v>0</v>
@@ -31477,7 +31429,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K862">
         <v>0</v>
@@ -31503,7 +31455,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K863">
         <v>0</v>
